--- a/WebRoot/sqlFile/前台功能请求.xlsx
+++ b/WebRoot/sqlFile/前台功能请求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="8415" tabRatio="781"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="17520" windowHeight="6765" tabRatio="781" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="发送短信" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="获取用户信息" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:M20"/>
+  <oleSize ref="A1:P24"/>
 </workbook>
 </file>
 
@@ -525,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6:H6"/>
     </sheetView>
   </sheetViews>
@@ -795,7 +795,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B2:E2"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="B11:E11"/>
@@ -811,24 +810,25 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:K18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:K17"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="F13:J13"/>
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="F16:K16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:K17"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1157,17 +1157,12 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F17:K17"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:K17"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:N13"/>
     <mergeCell ref="L14:N14"/>
@@ -1184,6 +1179,11 @@
     <mergeCell ref="F13:J13"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="F14:K14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="C17:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1196,7 +1196,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N22"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1513,7 +1513,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="C16:E16"/>
     <mergeCell ref="F16:K16"/>
     <mergeCell ref="L16:N16"/>
     <mergeCell ref="C17:E17"/>
@@ -1534,6 +1533,7 @@
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="L15:N15"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1867,7 +1867,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="C16:E16"/>
     <mergeCell ref="F16:K16"/>
     <mergeCell ref="L16:N16"/>
     <mergeCell ref="C17:E17"/>
@@ -1888,6 +1887,7 @@
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="L15:N15"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1899,7 +1899,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:H3"/>
+      <selection activeCell="F15" sqref="F15:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2216,7 +2216,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="C16:E16"/>
     <mergeCell ref="F16:K16"/>
     <mergeCell ref="L16:N16"/>
     <mergeCell ref="C17:E17"/>
@@ -2237,6 +2236,7 @@
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="L15:N15"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2247,7 +2247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -2565,7 +2565,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="C16:E16"/>
     <mergeCell ref="F16:K16"/>
     <mergeCell ref="L16:N16"/>
     <mergeCell ref="C17:E17"/>
@@ -2586,6 +2585,7 @@
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="L15:N15"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebRoot/sqlFile/前台功能请求.xlsx
+++ b/WebRoot/sqlFile/前台功能请求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="17520" windowHeight="6765" tabRatio="781" firstSheet="2" activeTab="5"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="15000" windowHeight="6765" tabRatio="781" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="发送短信" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="获取用户信息" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:P24"/>
+  <oleSize ref="A1:L24"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="41">
   <si>
     <t>功能名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,14 @@
   </si>
   <si>
     <t>message=“success” +发送成功数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findAllUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,7 +534,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:H6"/>
+      <selection activeCell="F5" sqref="F5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -840,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -883,7 +891,9 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -979,7 +989,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2247,7 +2257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>

--- a/WebRoot/sqlFile/前台功能请求.xlsx
+++ b/WebRoot/sqlFile/前台功能请求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="15000" windowHeight="6765" tabRatio="781" activeTab="1"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="8880" windowHeight="5805" tabRatio="781"/>
   </bookViews>
   <sheets>
     <sheet name="发送短信" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="获取用户信息" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:L24"/>
+  <oleSize ref="A1:G10"/>
 </workbook>
 </file>
 
@@ -533,7 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5:H5"/>
     </sheetView>
   </sheetViews>
@@ -803,6 +803,25 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:K17"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="B11:E11"/>
@@ -818,25 +837,6 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -848,7 +848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
@@ -1151,6 +1151,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:E11"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:H2"/>
@@ -1167,33 +1194,6 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="C17:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1501,33 +1501,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="L17:N17"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:K18"/>
     <mergeCell ref="L18:N18"/>
@@ -1544,6 +1517,33 @@
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1855,33 +1855,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="L17:N17"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:K18"/>
     <mergeCell ref="L18:N18"/>
@@ -1898,6 +1871,33 @@
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2204,33 +2204,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="L17:N17"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:K18"/>
     <mergeCell ref="L18:N18"/>
@@ -2247,6 +2220,33 @@
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2553,33 +2553,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="L17:N17"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:K18"/>
     <mergeCell ref="L18:N18"/>
@@ -2596,6 +2569,33 @@
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebRoot/sqlFile/前台功能请求.xlsx
+++ b/WebRoot/sqlFile/前台功能请求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="15000" windowHeight="6765" tabRatio="781" activeTab="1"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="15000" windowHeight="3690" tabRatio="781" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="发送短信" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="获取用户信息" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:L24"/>
+  <oleSize ref="A1:M13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="45">
   <si>
     <t>功能名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,15 +172,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>message=“success” +发送成功数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>findAllUser</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1  ： list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msggroupList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+msggroupList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:H5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -690,6 +706,11 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
+    <row r="12" spans="1:11">
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
         <v>9</v>
@@ -703,7 +724,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -720,8 +741,8 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
+      <c r="F14" s="2">
+        <v>0</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -739,9 +760,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -758,9 +777,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -848,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -892,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -989,7 +1006,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1013,8 +1030,8 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>26</v>
+      <c r="F13" s="2">
+        <v>1</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1022,7 +1039,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="1"/>
       <c r="L13" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1037,8 +1054,8 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
+      <c r="F14" s="2">
+        <v>0</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1059,9 +1076,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1081,9 +1096,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1205,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1366,7 +1379,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1374,7 +1387,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="1"/>
       <c r="L13" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1389,8 +1402,8 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
+      <c r="F14" s="2">
+        <v>0</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1411,9 +1424,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>

--- a/WebRoot/sqlFile/前台功能请求.xlsx
+++ b/WebRoot/sqlFile/前台功能请求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="8880" windowHeight="5805" tabRatio="781"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="15000" windowHeight="3690" tabRatio="781" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="发送短信" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="获取用户信息" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:G10"/>
+  <oleSize ref="A1:M13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="45">
   <si>
     <t>功能名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,15 +172,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>message=“success” +发送成功数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>findAllUser</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1  ： list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msggroupList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+msggroupList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:H5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -690,6 +706,11 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
+    <row r="12" spans="1:11">
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
         <v>9</v>
@@ -703,7 +724,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -720,8 +741,8 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
+      <c r="F14" s="2">
+        <v>0</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -739,9 +760,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -758,9 +777,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -803,25 +820,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:K17"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="B11:E11"/>
@@ -837,6 +835,25 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -848,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -892,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -989,7 +1006,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1013,8 +1030,8 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>26</v>
+      <c r="F13" s="2">
+        <v>1</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1022,7 +1039,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="1"/>
       <c r="L13" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1037,8 +1054,8 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
+      <c r="F14" s="2">
+        <v>0</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1059,9 +1076,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1081,9 +1096,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1151,6 +1164,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L16:N16"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="C18:E18"/>
@@ -1167,33 +1207,6 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="F16:K16"/>
     <mergeCell ref="C17:E17"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1205,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1366,7 +1379,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1374,7 +1387,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="1"/>
       <c r="L13" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1389,8 +1402,8 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
+      <c r="F14" s="2">
+        <v>0</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1411,9 +1424,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1501,6 +1512,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="L17:N17"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:K18"/>
     <mergeCell ref="L18:N18"/>
@@ -1517,33 +1555,6 @@
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1855,6 +1866,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="L17:N17"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:K18"/>
     <mergeCell ref="L18:N18"/>
@@ -1871,33 +1909,6 @@
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2204,6 +2215,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="L17:N17"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:K18"/>
     <mergeCell ref="L18:N18"/>
@@ -2220,33 +2258,6 @@
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2553,6 +2564,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="L17:N17"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:K18"/>
     <mergeCell ref="L18:N18"/>
@@ -2569,33 +2607,6 @@
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebRoot/sqlFile/前台功能请求.xlsx
+++ b/WebRoot/sqlFile/前台功能请求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="15000" windowHeight="3690" tabRatio="781" activeTab="2"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="15000" windowHeight="6255" tabRatio="781" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="发送短信" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="获取用户信息" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:M13"/>
+  <oleSize ref="A1:M22"/>
 </workbook>
 </file>
 
@@ -820,6 +820,25 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:K17"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="B11:E11"/>
@@ -835,25 +854,6 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1164,6 +1164,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:E11"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:H2"/>
@@ -1180,33 +1207,6 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="C17:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1218,7 +1218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F15" sqref="F15:K15"/>
     </sheetView>
   </sheetViews>
@@ -1512,33 +1512,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="L17:N17"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:K18"/>
     <mergeCell ref="L18:N18"/>
@@ -1555,6 +1528,33 @@
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1866,33 +1866,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="L17:N17"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:K18"/>
     <mergeCell ref="L18:N18"/>
@@ -1909,322 +1882,11 @@
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="C16:E16"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:K15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="2"/>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="2"/>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="2"/>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="2"/>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="2"/>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="2"/>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="2"/>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="L12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="2"/>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="2"/>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="2"/>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="2"/>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="2"/>
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="L17:N17"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:H6"/>
@@ -2237,11 +1899,322 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2"/>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2"/>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2"/>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2"/>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2"/>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="2"/>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="2"/>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="L12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="2"/>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="2"/>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="2"/>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="2"/>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="2"/>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:K18"/>
     <mergeCell ref="L18:N18"/>
@@ -2258,6 +2231,33 @@
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2564,33 +2564,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="L17:N17"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:K18"/>
     <mergeCell ref="L18:N18"/>
@@ -2607,6 +2580,33 @@
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
